--- a/reference/ETest/ETest.xlsx
+++ b/reference/ETest/ETest.xlsx
@@ -141,7 +141,7 @@
     <t>pasi</t>
   </si>
   <si>
-    <t>ef puc</t>
+    <t>ef-puc</t>
   </si>
   <si>
     <t>zurlit</t>
@@ -171,31 +171,31 @@
     <t>Oxxad</t>
   </si>
   <si>
-    <t>ef sucer</t>
+    <t>is-cerov</t>
   </si>
   <si>
     <t>Vunmum</t>
   </si>
   <si>
-    <t>ef Sucer</t>
-  </si>
-  <si>
-    <t>dabak</t>
+    <t>is-Cerov</t>
+  </si>
+  <si>
+    <t>lakim</t>
   </si>
   <si>
     <t>Jeuh</t>
   </si>
   <si>
-    <t>mimzeb</t>
-  </si>
-  <si>
-    <t>daeln</t>
+    <t>zebdar</t>
+  </si>
+  <si>
+    <t>feinc</t>
   </si>
   <si>
     <t>ap'om</t>
   </si>
   <si>
-    <t>suphowa</t>
+    <t>gejdowo</t>
   </si>
   <si>
     <t>M</t>
@@ -524,7 +524,7 @@
       </c>
       <c r="K9" t="str">
         <f>$C$33</f>
-        <v>suphowa</v>
+        <v>gejdowo</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="K10" t="str">
         <f>$C$33</f>
-        <v>suphowa</v>
+        <v>gejdowo</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="K11" t="str">
         <f>$C$33</f>
-        <v>suphowa</v>
+        <v>gejdowo</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
@@ -617,7 +617,7 @@
       </c>
       <c r="K12" t="str">
         <f>$C$33</f>
-        <v>suphowa</v>
+        <v>gejdowo</v>
       </c>
       <c r="L12"/>
       <c r="M12"/>
@@ -1154,7 +1154,7 @@
       <c r="I31"/>
       <c r="J31" t="str">
         <f>$C$29</f>
-        <v>dabak</v>
+        <v>lakim</v>
       </c>
       <c r="K31" t="str">
         <f>$C$30</f>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>307.0</v>
+        <v>311.0</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>271.0</v>
+        <v>275.0</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
